--- a/FLOW timeheet.xlsx
+++ b/FLOW timeheet.xlsx
@@ -1,31 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\xampp\htdocs\flow\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE79E008-C107-4D4C-9276-A132C9A03746}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
   <si>
     <t>DATE</t>
   </si>
@@ -33,10 +22,16 @@
     <t>WORK DESCR.</t>
   </si>
   <si>
+    <t>CONTENT &amp; INPUTS</t>
+  </si>
+  <si>
     <t>UPDATES</t>
   </si>
   <si>
-    <t>Design started</t>
+    <t>Team Remarks</t>
+  </si>
+  <si>
+    <t>Design started (only for home page &amp; Blog)</t>
   </si>
   <si>
     <t>Home page designed &amp; mailed</t>
@@ -54,37 +49,261 @@
     <t>Selcted baige BG color option with dark green footer</t>
   </si>
   <si>
+    <t>Revised Home page with 4  color options</t>
+  </si>
+  <si>
     <t>Sent options for navigation menu animations</t>
   </si>
   <si>
-    <t>Revised Home page with 4  color options</t>
-  </si>
-  <si>
     <t>Sent final layout with color theme, navigation animation &amp; blog layout</t>
   </si>
   <si>
     <t>Approved layout by Jenis</t>
   </si>
   <si>
-    <t>Got content for event</t>
-  </si>
-  <si>
     <t>Development started</t>
   </si>
   <si>
+    <t>Got content for event (1 mockup event)</t>
+  </si>
+  <si>
+    <t>New Layout designed for event</t>
+  </si>
+  <si>
     <t>Home page goes live on demo URL</t>
+  </si>
+  <si>
+    <t>Got partial content for About Us section</t>
+  </si>
+  <si>
+    <t>Got content for Programs section, Feedbacks</t>
+  </si>
+  <si>
+    <t>1. Bubbles animation to be slowed down. Bubbles can also zoom in with the website instead of a direct bubble appearing.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Done (Note: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Zooming in bubbles not in scope for dynamic content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Only for BG blobs</t>
+  </si>
+  <si>
+    <t>2. Flow is happiness bubble has a straight line in bottom and top when it expands</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>3. Home, about etc sections looks good with red blob. Can change how the buttons looks when mouse is hovered (right now they become back and underlined), can be done something else </t>
+  </si>
+  <si>
+    <t>4. Current events, Feedback and our gallery - heading can be improved + 'See All' and 'Details' button can remove '&lt;&lt;', any way to enhance these two buttons?</t>
+  </si>
+  <si>
+    <t>5. 'Send message' and 'subscribe' button color to be the same as footer color</t>
+  </si>
+  <si>
+    <t>6. Reach us - change the msg to: Tap into the flow with us by sending us a message. Our team will reach out to you shortly.</t>
+  </si>
+  <si>
+    <t>6.Also, in blogs please add a comments section. </t>
+  </si>
+  <si>
+    <t>Not in scope</t>
+  </si>
+  <si>
+    <t>Basic blog doesn't include comments &amp; categories</t>
+  </si>
+  <si>
+    <t>Got 1 blog write up with SEO tags &amp; category.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Images selected &amp; uploaded (Note: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Category &amp; tags not in scope</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Got gallery images content</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Below I am flow! Free to learn our way:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> It all began with a question, ‘What was something that was not a part of my education, but I wish it was!’</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Flow is happiness bubble: Flow began with an idea of a world with a vision of kinder kids, emotionally learned beings, socially inclusive students with a sense of community spirit, humane communication, happier folks, facilitating We(s) in the world of I(s) and of people in touch with their inner world with all of its landscapes, flowers, dreams and power.
+With research of over 1 year, we have wrapped it all up in our program,' Free to Learn Our Way'</t>
+  </si>
+  <si>
+    <t>Others:</t>
+  </si>
+  <si>
+    <t>Also, please could you remove the stars rating in feedback. Also, 'Send message' and 'Subscribe' button color isn't changed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Got content for 1 past event </t>
+  </si>
+  <si>
+    <t>Added in events section</t>
+  </si>
+  <si>
+    <t>1. Read more can be removed</t>
+  </si>
+  <si>
+    <t>2. The graphic of the girl seems to be blurred. Also the text seems below her, was it meant to be next to her?</t>
+  </si>
+  <si>
+    <t>3. The text seems to be just placed, can add more design elements in places like Flow began with a question and all the questions.</t>
+  </si>
+  <si>
+    <t>4. Can add some design element in the main text as well.</t>
+  </si>
+  <si>
+    <t>Got video testimonial (youtube link) for gallery</t>
+  </si>
+  <si>
+    <t>Hope changes are made and programs section is on its way. One thing that is misssed it- " Flow is...Happiness. What we crave, carves us." has to be removed. if we need a heading, we can change it to simply "Flow is.... here" (here as in arrived, launched)</t>
+  </si>
+  <si>
+    <t>Page-1 </t>
+  </si>
+  <si>
+    <t>Clicking on the FLOW logo should bring back the user to the homepage. </t>
+  </si>
+  <si>
+    <t>Side Blob is disfigured- Check.</t>
+  </si>
+  <si>
+    <t>Correction- WOLF= Workshops on learning and facilitation</t>
+  </si>
+  <si>
+    <t>Page- 2 </t>
+  </si>
+  <si>
+    <t>Add a pause after Flow is, on the second page (Flow is… here). </t>
+  </si>
+  <si>
+    <t>Add the video sent in the gallery section. </t>
+  </si>
+  <si>
+    <t>No changes made in the About page- Add graphics </t>
+  </si>
+  <si>
+    <t>Change the heading from PROGRAMS to Free to learn our way(FLOW). Do the same in the teacher’s training program- Workshops on Learning and Facilitation.</t>
+  </si>
+  <si>
+    <t>The programs page should start directly with the overview section. Remove read more from there. </t>
+  </si>
+  <si>
+    <t>Graphical elements missing-</t>
+  </si>
+  <si>
+    <t>Add graphics to this page. It’s just text. Need more creativity. </t>
+  </si>
+  <si>
+    <t>- self, school and students section.</t>
+  </si>
+  <si>
+    <t>- AIR should ideally be through graphical blobs and landmarks. </t>
+  </si>
+  <si>
+    <t>-Milestone for (How to collaborate?) section as reference was given but just text was put</t>
+  </si>
+  <si>
+    <t>- more ideas from your end to add graphics instead of text!!</t>
+  </si>
+  <si>
+    <t>Contact- </t>
+  </si>
+  <si>
+    <t>Reach us should come above instead of the address and phone numbers as address and others things are already mentioned down below.</t>
+  </si>
+  <si>
+    <t>Events-</t>
+  </si>
+  <si>
+    <t>Add graphical element instead of the yellow box, when the event is opened. Should look more attractive and interesting to the user. </t>
+  </si>
+  <si>
+    <t>Yellow blob in the REACH US section matches with the event blob. Make it look different, so as not to confuse. </t>
+  </si>
+  <si>
+    <t>Bubble graphics not fluidic in some areas.</t>
+  </si>
+  <si>
+    <t>Read more instead of Know more.</t>
+  </si>
+  <si>
+    <t>(Menu&gt; Programs)Dropdown menu inside the program’s sections misses graphical elements- (Looks plain in white box) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -92,19 +311,430 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -112,47 +742,394 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -201,7 +1178,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -236,7 +1213,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -410,127 +1387,515 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="47" style="6" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" style="2" customWidth="1"/>
-    <col min="4" max="7" width="9.140625" style="2"/>
+    <col min="1" max="1" width="12.7142857142857" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.1428571428571" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48.8571428571429" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.4285714285714" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5714285714286" style="3" customWidth="1"/>
+    <col min="6" max="7" width="9.14285714285714" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="8">
         <v>44206</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="8">
         <v>44208</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="30" spans="1:4">
+      <c r="A5" s="8">
         <v>44211</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="D5" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="8">
         <v>44212</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="D6" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8">
         <v>44214</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="9" ht="30" spans="2:3">
+      <c r="B9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="8">
         <v>44215</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="B11" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="8">
         <v>44218</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8">
         <v>44226</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>15</v>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="8">
+        <v>44229</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="8">
+        <v>44230</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" ht="45" spans="3:5">
+      <c r="C16" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" ht="30" spans="3:4">
+      <c r="C17" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" ht="60" spans="3:4">
+      <c r="C18" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" ht="45" spans="3:4">
+      <c r="C19" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" ht="30" spans="3:5">
+      <c r="C20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" ht="45" spans="3:4">
+      <c r="C21" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5">
+      <c r="C22" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" ht="30" spans="1:5">
+      <c r="A23" s="8">
+        <v>44231</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" ht="45" spans="1:4">
+      <c r="A26" s="8">
+        <v>44232</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" ht="120" spans="3:4">
+      <c r="C27" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" ht="30" spans="3:3">
+      <c r="C28" s="15"/>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" s="17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" ht="45" spans="3:4">
+      <c r="C30" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="8">
+        <v>44233</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" ht="42.75" spans="3:4">
+      <c r="C34" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" ht="42.75" spans="3:4">
+      <c r="C35" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" ht="28.5" spans="3:4">
+      <c r="C36" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="8">
+        <v>44235</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" ht="85.5" spans="3:4">
+      <c r="C39" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="8">
+        <v>44237</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" ht="28.5" spans="3:4">
+      <c r="C42" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="C43" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="20"/>
+    </row>
+    <row r="44" ht="28.5" spans="3:4">
+      <c r="C44" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" ht="28.5" spans="3:4">
+      <c r="C47" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4">
+      <c r="C48" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="C49" s="15"/>
+      <c r="D49" s="21"/>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" s="21"/>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="C51" s="22"/>
+      <c r="D51" s="21"/>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="C52" s="23"/>
+      <c r="D52" s="21"/>
+    </row>
+    <row r="53" spans="3:4">
+      <c r="C53" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="24"/>
+    </row>
+    <row r="54" ht="57" spans="3:4">
+      <c r="C54" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" ht="28.5" spans="3:4">
+      <c r="C55" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" ht="28.5" spans="3:4">
+      <c r="C57" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="26"/>
+    </row>
+    <row r="58" spans="3:4">
+      <c r="C58" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="26"/>
+    </row>
+    <row r="59" ht="28.5" spans="3:4">
+      <c r="C59" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="26"/>
+    </row>
+    <row r="60" ht="28.5" spans="3:4">
+      <c r="C60" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60" s="26"/>
+    </row>
+    <row r="61" ht="28.5" spans="3:4">
+      <c r="C61" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="26"/>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="27"/>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64" s="23"/>
+    </row>
+    <row r="65" ht="42.75" spans="3:4">
+      <c r="C65" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="23"/>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" ht="42.75" spans="3:4">
+      <c r="C68" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68" s="26"/>
+    </row>
+    <row r="69" ht="42.75" spans="3:4">
+      <c r="C69" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4">
+      <c r="C71" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" s="26"/>
+    </row>
+    <row r="72" spans="3:4">
+      <c r="C72" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" ht="42.75" spans="3:4">
+      <c r="C73" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E22:E23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>